--- a/doc/Design/layout/BookShop.xlsx
+++ b/doc/Design/layout/BookShop.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\Project_Final\doc\Design\layout\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8985" tabRatio="705" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <r>
       <t>*A - Add</t>
@@ -286,9 +291,6 @@
     <t>Trang chu</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>(1.1) Menu bar to go others webpage</t>
   </si>
   <si>
@@ -315,11 +317,17 @@
   <si>
     <t>Footer</t>
   </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>Thông Tin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#."/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -2346,6 +2354,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="30" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="30" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="30" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2428,39 +2469,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2775,7 +2783,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DE9EB3-E316-4F7A-AC7F-54CD7D38BE7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DE9EB3-E316-4F7A-AC7F-54CD7D38BE7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2795,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2825,7 +2833,7 @@
         <xdr:cNvPr id="27" name="Oval 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A621149D-BA80-41E3-BC0A-CD1AE069E9AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A621149D-BA80-41E3-BC0A-CD1AE069E9AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2890,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1D9184-5245-4A42-9F5A-75339880B224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1D9184-5245-4A42-9F5A-75339880B224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2894,7 +2902,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2932,7 +2940,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC7CCCD-A930-4113-8059-6456B117711E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC7CCCD-A930-4113-8059-6456B117711E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2952,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3314,27 +3322,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="39.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="253" width="9.140625" style="1"/>
-    <col min="254" max="254" width="21.28515625" style="1" customWidth="1"/>
-    <col min="255" max="255" width="41.5703125" style="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="253" width="9.109375" style="1"/>
+    <col min="254" max="254" width="21.33203125" style="1" customWidth="1"/>
+    <col min="255" max="255" width="41.5546875" style="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3383,262 +3391,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A66" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC92" sqref="AC92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="14" max="14" width="3.28515625" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" customWidth="1"/>
-    <col min="29" max="29" width="3.140625" customWidth="1"/>
-    <col min="31" max="32" width="2.85546875" customWidth="1"/>
-    <col min="33" max="33" width="2.140625" customWidth="1"/>
-    <col min="35" max="35" width="3.28515625" customWidth="1"/>
-    <col min="36" max="36" width="2.42578125" customWidth="1"/>
-    <col min="37" max="37" width="3.5703125" customWidth="1"/>
-    <col min="40" max="40" width="2.28515625" customWidth="1"/>
-    <col min="41" max="41" width="3.140625" customWidth="1"/>
-    <col min="44" max="44" width="2.85546875" customWidth="1"/>
-    <col min="46" max="46" width="3.42578125" customWidth="1"/>
-    <col min="47" max="47" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
+    <col min="17" max="17" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.33203125" customWidth="1"/>
+    <col min="23" max="23" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5546875" customWidth="1"/>
+    <col min="29" max="29" width="3.109375" customWidth="1"/>
+    <col min="31" max="32" width="2.88671875" customWidth="1"/>
+    <col min="33" max="33" width="2.109375" customWidth="1"/>
+    <col min="35" max="35" width="3.33203125" customWidth="1"/>
+    <col min="36" max="36" width="2.44140625" customWidth="1"/>
+    <col min="37" max="37" width="3.5546875" customWidth="1"/>
+    <col min="40" max="40" width="2.33203125" customWidth="1"/>
+    <col min="41" max="41" width="3.109375" customWidth="1"/>
+    <col min="44" max="44" width="2.88671875" customWidth="1"/>
+    <col min="46" max="46" width="3.44140625" customWidth="1"/>
+    <col min="47" max="47" width="2.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="170" t="s">
+    <row r="1" spans="1:48" ht="12.15" customHeight="1">
+      <c r="A1" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="174" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="137" t="s">
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="146"/>
+      <c r="AF1" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="139"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+      <c r="AR1" s="149"/>
+      <c r="AS1" s="149"/>
+      <c r="AT1" s="149"/>
+      <c r="AU1" s="149"/>
+      <c r="AV1" s="150"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="140" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="141"/>
-      <c r="AQ2" s="141"/>
-      <c r="AR2" s="141"/>
-      <c r="AS2" s="141"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="142"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="152"/>
+      <c r="AN2" s="152"/>
+      <c r="AO2" s="152"/>
+      <c r="AP2" s="152"/>
+      <c r="AQ2" s="152"/>
+      <c r="AR2" s="152"/>
+      <c r="AS2" s="152"/>
+      <c r="AT2" s="152"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="153"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="149" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="155" t="s">
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="149" t="s">
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="157" t="s">
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="157"/>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="157"/>
-      <c r="AJ3" s="157"/>
-      <c r="AK3" s="158" t="s">
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="159"/>
-      <c r="AM3" s="159"/>
-      <c r="AN3" s="159"/>
-      <c r="AO3" s="157" t="s">
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="157"/>
-      <c r="AQ3" s="157"/>
-      <c r="AR3" s="157"/>
-      <c r="AS3" s="160" t="s">
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="161"/>
+      <c r="AT3" s="171"/>
+      <c r="AU3" s="171"/>
+      <c r="AV3" s="172"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="153"/>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="162" t="s">
+      <c r="A4" s="157"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="164"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="164"/>
+      <c r="AA4" s="164"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="164"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="159"/>
-      <c r="AM4" s="159"/>
-      <c r="AN4" s="159"/>
-      <c r="AO4" s="162" t="s">
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="173"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="163"/>
-      <c r="AT4" s="163"/>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="164"/>
+      <c r="AP4" s="173"/>
+      <c r="AQ4" s="173"/>
+      <c r="AR4" s="173"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="175"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="6"/>
@@ -4152,7 +4160,7 @@
       <c r="AU14" s="39"/>
       <c r="AV14" s="8"/>
     </row>
-    <row r="15" spans="1:48" ht="15.75" thickBot="1">
+    <row r="15" spans="1:48" ht="14.4" thickBot="1">
       <c r="A15" s="60"/>
       <c r="B15" s="61"/>
       <c r="C15" s="60" t="s">
@@ -4204,17 +4212,17 @@
       <c r="AU15" s="56"/>
       <c r="AV15" s="56"/>
     </row>
-    <row r="16" spans="1:48" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:48" ht="15" thickTop="1" thickBot="1">
       <c r="D16" s="67"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="167" t="s">
+      <c r="F16" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
       <c r="L16" s="86"/>
       <c r="M16" s="86"/>
       <c r="N16" s="86"/>
@@ -4253,15 +4261,15 @@
       <c r="AQ16" s="112"/>
       <c r="AR16" s="112"/>
     </row>
-    <row r="17" spans="4:44" ht="24.75" thickTop="1" thickBot="1">
+    <row r="17" spans="4:44" ht="24" thickTop="1" thickBot="1">
       <c r="D17" s="69"/>
       <c r="E17" s="58"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
       <c r="L17" s="79"/>
       <c r="M17" s="120" t="s">
         <v>68</v>
@@ -4272,14 +4280,16 @@
       <c r="Q17" s="121"/>
       <c r="R17" s="79"/>
       <c r="S17" s="120" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="T17" s="79"/>
       <c r="U17" s="79"/>
       <c r="V17" s="79"/>
       <c r="W17" s="79"/>
       <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
+      <c r="Y17" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="Z17" s="79"/>
       <c r="AA17" s="79"/>
       <c r="AB17" s="79"/>
@@ -4304,7 +4314,7 @@
       </c>
       <c r="AR17" s="88"/>
     </row>
-    <row r="18" spans="4:44" ht="15.75" thickTop="1">
+    <row r="18" spans="4:44" ht="14.4" thickTop="1">
       <c r="D18" s="87"/>
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
@@ -4349,7 +4359,7 @@
       <c r="AQ18" s="79"/>
       <c r="AR18" s="88"/>
     </row>
-    <row r="19" spans="4:44" ht="20.25">
+    <row r="19" spans="4:44" ht="20.399999999999999">
       <c r="D19" s="87"/>
       <c r="E19" s="79"/>
       <c r="F19" s="92"/>
@@ -4520,7 +4530,7 @@
       <c r="AQ22" s="56"/>
       <c r="AR22" s="71"/>
     </row>
-    <row r="23" spans="4:44" ht="15.75" thickBot="1">
+    <row r="23" spans="4:44" ht="14.4" thickBot="1">
       <c r="D23" s="70"/>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
@@ -4612,7 +4622,7 @@
       <c r="H25" s="56"/>
       <c r="I25" s="126"/>
       <c r="J25" s="132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" s="131"/>
       <c r="L25" s="127"/>
@@ -4622,7 +4632,7 @@
       <c r="Q25" s="56"/>
       <c r="R25" s="126"/>
       <c r="S25" s="132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T25" s="131"/>
       <c r="U25" s="127"/>
@@ -4632,7 +4642,7 @@
       <c r="Y25" s="56"/>
       <c r="Z25" s="126"/>
       <c r="AA25" s="132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB25" s="131"/>
       <c r="AC25" s="127"/>
@@ -4643,7 +4653,7 @@
       <c r="AH25" s="56"/>
       <c r="AI25" s="126"/>
       <c r="AJ25" s="132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK25" s="131"/>
       <c r="AL25" s="127"/>
@@ -4662,7 +4672,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="126"/>
       <c r="J26" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K26" s="56"/>
       <c r="L26" s="127"/>
@@ -4672,7 +4682,7 @@
       <c r="Q26" s="56"/>
       <c r="R26" s="126"/>
       <c r="S26" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T26" s="56"/>
       <c r="U26" s="127"/>
@@ -4682,7 +4692,7 @@
       <c r="Y26" s="56"/>
       <c r="Z26" s="126"/>
       <c r="AA26" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB26" s="56"/>
       <c r="AC26" s="127"/>
@@ -4691,7 +4701,7 @@
       <c r="AH26" s="56"/>
       <c r="AI26" s="126"/>
       <c r="AJ26" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK26" s="56"/>
       <c r="AL26" s="127"/>
@@ -4702,7 +4712,7 @@
       <c r="AQ26" s="56"/>
       <c r="AR26" s="71"/>
     </row>
-    <row r="27" spans="4:44" ht="15.75" thickBot="1">
+    <row r="27" spans="4:44" ht="14.4" thickBot="1">
       <c r="D27" s="70"/>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
@@ -4775,7 +4785,7 @@
       <c r="AQ28" s="56"/>
       <c r="AR28" s="71"/>
     </row>
-    <row r="29" spans="4:44" ht="15.75" thickBot="1">
+    <row r="29" spans="4:44" ht="14.4" thickBot="1">
       <c r="D29" s="70"/>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
@@ -4783,7 +4793,7 @@
       <c r="H29" s="56"/>
       <c r="I29" s="133"/>
       <c r="J29" s="134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" s="134"/>
       <c r="L29" s="135"/>
@@ -4793,7 +4803,7 @@
       <c r="Q29" s="56"/>
       <c r="R29" s="133"/>
       <c r="S29" s="134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T29" s="134"/>
       <c r="U29" s="135"/>
@@ -4803,7 +4813,7 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="133"/>
       <c r="AA29" s="134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB29" s="134"/>
       <c r="AC29" s="135"/>
@@ -4811,7 +4821,7 @@
       <c r="AH29" s="56"/>
       <c r="AI29" s="133"/>
       <c r="AJ29" s="134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK29" s="134"/>
       <c r="AL29" s="135"/>
@@ -4819,7 +4829,7 @@
       <c r="AQ29" s="56"/>
       <c r="AR29" s="71"/>
     </row>
-    <row r="30" spans="4:44" ht="15.75" thickTop="1">
+    <row r="30" spans="4:44" ht="14.4" thickTop="1">
       <c r="D30" s="70"/>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
@@ -5095,7 +5105,7 @@
       <c r="AQ37" s="56"/>
       <c r="AR37" s="71"/>
     </row>
-    <row r="38" spans="3:44" ht="15.75" thickBot="1">
+    <row r="38" spans="3:44" ht="14.4" thickBot="1">
       <c r="D38" s="70"/>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
@@ -5138,7 +5148,7 @@
       <c r="AQ38" s="56"/>
       <c r="AR38" s="71"/>
     </row>
-    <row r="39" spans="3:44" ht="15.75" thickTop="1">
+    <row r="39" spans="3:44" ht="14.4" thickTop="1">
       <c r="D39" s="75"/>
       <c r="E39" s="76"/>
       <c r="F39" s="76"/>
@@ -5224,7 +5234,7 @@
       <c r="AQ40" s="56"/>
       <c r="AR40" s="71"/>
     </row>
-    <row r="41" spans="3:44" ht="26.25">
+    <row r="41" spans="3:44" ht="25.2">
       <c r="D41" s="70"/>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
@@ -5243,7 +5253,7 @@
       <c r="S41" s="56"/>
       <c r="T41" s="56"/>
       <c r="U41" s="136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V41" s="56"/>
       <c r="W41" s="56"/>
@@ -5312,7 +5322,7 @@
       <c r="AQ42" s="56"/>
       <c r="AR42" s="71"/>
     </row>
-    <row r="43" spans="3:44" ht="15.75" thickBot="1">
+    <row r="43" spans="3:44" ht="14.4" thickBot="1">
       <c r="D43" s="72"/>
       <c r="E43" s="73"/>
       <c r="F43" s="73"/>
@@ -5355,7 +5365,7 @@
       <c r="AQ43" s="73"/>
       <c r="AR43" s="74"/>
     </row>
-    <row r="44" spans="3:44" ht="15.75" thickTop="1">
+    <row r="44" spans="3:44" ht="14.4" thickTop="1">
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
@@ -5409,13 +5419,13 @@
     <row r="46" spans="3:44">
       <c r="C46" s="85"/>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="3:44">
       <c r="C47" s="85"/>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="3:44">
@@ -5442,12 +5452,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="2:44" ht="15.75" thickBot="1">
+    <row r="52" spans="2:44" ht="14.4" thickBot="1">
       <c r="C52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:44" ht="15.75" thickTop="1">
+    <row r="53" spans="2:44" ht="14.4" thickTop="1">
       <c r="D53" s="75"/>
       <c r="E53" s="76"/>
       <c r="F53" s="76"/>
@@ -5490,7 +5500,7 @@
       <c r="AQ53" s="76"/>
       <c r="AR53" s="77"/>
     </row>
-    <row r="54" spans="2:44" ht="13.9" customHeight="1">
+    <row r="54" spans="2:44" ht="13.95" customHeight="1">
       <c r="D54" s="70"/>
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
@@ -5504,20 +5514,20 @@
       <c r="N54" s="56"/>
       <c r="O54" s="56"/>
       <c r="P54" s="56"/>
-      <c r="Q54" s="169" t="s">
+      <c r="Q54" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="R54" s="169"/>
-      <c r="S54" s="169"/>
-      <c r="T54" s="169"/>
-      <c r="U54" s="169"/>
-      <c r="V54" s="169"/>
-      <c r="W54" s="169"/>
-      <c r="X54" s="169"/>
-      <c r="Y54" s="169"/>
-      <c r="Z54" s="169"/>
-      <c r="AA54" s="169"/>
-      <c r="AB54" s="169"/>
+      <c r="R54" s="141"/>
+      <c r="S54" s="141"/>
+      <c r="T54" s="141"/>
+      <c r="U54" s="141"/>
+      <c r="V54" s="141"/>
+      <c r="W54" s="141"/>
+      <c r="X54" s="141"/>
+      <c r="Y54" s="141"/>
+      <c r="Z54" s="141"/>
+      <c r="AA54" s="141"/>
+      <c r="AB54" s="141"/>
       <c r="AC54" s="100"/>
       <c r="AD54" s="56"/>
       <c r="AE54" s="56"/>
@@ -5535,7 +5545,7 @@
       <c r="AQ54" s="56"/>
       <c r="AR54" s="71"/>
     </row>
-    <row r="55" spans="2:44" ht="13.9" customHeight="1">
+    <row r="55" spans="2:44" ht="13.95" customHeight="1">
       <c r="D55" s="70"/>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
@@ -5549,18 +5559,18 @@
       <c r="N55" s="56"/>
       <c r="O55" s="56"/>
       <c r="P55" s="56"/>
-      <c r="Q55" s="169"/>
-      <c r="R55" s="169"/>
-      <c r="S55" s="169"/>
-      <c r="T55" s="169"/>
-      <c r="U55" s="169"/>
-      <c r="V55" s="169"/>
-      <c r="W55" s="169"/>
-      <c r="X55" s="169"/>
-      <c r="Y55" s="169"/>
-      <c r="Z55" s="169"/>
-      <c r="AA55" s="169"/>
-      <c r="AB55" s="169"/>
+      <c r="Q55" s="141"/>
+      <c r="R55" s="141"/>
+      <c r="S55" s="141"/>
+      <c r="T55" s="141"/>
+      <c r="U55" s="141"/>
+      <c r="V55" s="141"/>
+      <c r="W55" s="141"/>
+      <c r="X55" s="141"/>
+      <c r="Y55" s="141"/>
+      <c r="Z55" s="141"/>
+      <c r="AA55" s="141"/>
+      <c r="AB55" s="141"/>
       <c r="AC55" s="100"/>
       <c r="AD55" s="56"/>
       <c r="AE55" s="56"/>
@@ -5676,7 +5686,7 @@
       <c r="L58" s="56"/>
       <c r="M58" s="56"/>
       <c r="N58" s="111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O58" s="56"/>
       <c r="P58" s="56"/>
@@ -5766,14 +5776,14 @@
       <c r="L60" s="56"/>
       <c r="M60" s="56"/>
       <c r="N60" s="111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O60" s="56"/>
       <c r="P60" s="56"/>
       <c r="Q60" s="56"/>
       <c r="R60" s="56"/>
       <c r="S60" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T60" s="17"/>
       <c r="U60" s="17"/>
@@ -6111,7 +6121,7 @@
       <c r="AQ67" s="56"/>
       <c r="AR67" s="71"/>
     </row>
-    <row r="68" spans="3:44" ht="15.75" thickBot="1">
+    <row r="68" spans="3:44" ht="14.4" thickBot="1">
       <c r="D68" s="70"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
@@ -6158,7 +6168,7 @@
       <c r="AQ68" s="56"/>
       <c r="AR68" s="71"/>
     </row>
-    <row r="69" spans="3:44" ht="15.75" thickTop="1">
+    <row r="69" spans="3:44" ht="14.4" thickTop="1">
       <c r="D69" s="70"/>
       <c r="E69" s="56"/>
       <c r="F69" s="56"/>
@@ -6330,7 +6340,7 @@
       <c r="AQ72" s="56"/>
       <c r="AR72" s="71"/>
     </row>
-    <row r="73" spans="3:44" ht="15.75" thickBot="1">
+    <row r="73" spans="3:44" ht="14.4" thickBot="1">
       <c r="D73" s="72"/>
       <c r="E73" s="73"/>
       <c r="F73" s="73"/>
@@ -6373,13 +6383,13 @@
       <c r="AQ73" s="73"/>
       <c r="AR73" s="74"/>
     </row>
-    <row r="74" spans="3:44" ht="15.75" thickTop="1"/>
-    <row r="76" spans="3:44" ht="15.75" thickBot="1">
+    <row r="74" spans="3:44" ht="14.4" thickTop="1"/>
+    <row r="76" spans="3:44" ht="14.4" thickBot="1">
       <c r="C76" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="3:44" ht="15.75" thickTop="1">
+    <row r="77" spans="3:44" ht="14.4" thickTop="1">
       <c r="D77" s="75"/>
       <c r="E77" s="76"/>
       <c r="F77" s="76"/>
@@ -6436,20 +6446,20 @@
       <c r="N78" s="56"/>
       <c r="O78" s="56"/>
       <c r="P78" s="56"/>
-      <c r="Q78" s="165" t="s">
+      <c r="Q78" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="R78" s="166"/>
-      <c r="S78" s="166"/>
-      <c r="T78" s="166"/>
-      <c r="U78" s="166"/>
-      <c r="V78" s="166"/>
-      <c r="W78" s="166"/>
-      <c r="X78" s="166"/>
-      <c r="Y78" s="166"/>
-      <c r="Z78" s="166"/>
-      <c r="AA78" s="166"/>
-      <c r="AB78" s="166"/>
+      <c r="R78" s="138"/>
+      <c r="S78" s="138"/>
+      <c r="T78" s="138"/>
+      <c r="U78" s="138"/>
+      <c r="V78" s="138"/>
+      <c r="W78" s="138"/>
+      <c r="X78" s="138"/>
+      <c r="Y78" s="138"/>
+      <c r="Z78" s="138"/>
+      <c r="AA78" s="138"/>
+      <c r="AB78" s="138"/>
       <c r="AC78" s="56"/>
       <c r="AD78" s="56"/>
       <c r="AE78" s="56"/>
@@ -6481,18 +6491,18 @@
       <c r="N79" s="56"/>
       <c r="O79" s="56"/>
       <c r="P79" s="56"/>
-      <c r="Q79" s="166"/>
-      <c r="R79" s="166"/>
-      <c r="S79" s="166"/>
-      <c r="T79" s="166"/>
-      <c r="U79" s="166"/>
-      <c r="V79" s="166"/>
-      <c r="W79" s="166"/>
-      <c r="X79" s="166"/>
-      <c r="Y79" s="166"/>
-      <c r="Z79" s="166"/>
-      <c r="AA79" s="166"/>
-      <c r="AB79" s="166"/>
+      <c r="Q79" s="138"/>
+      <c r="R79" s="138"/>
+      <c r="S79" s="138"/>
+      <c r="T79" s="138"/>
+      <c r="U79" s="138"/>
+      <c r="V79" s="138"/>
+      <c r="W79" s="138"/>
+      <c r="X79" s="138"/>
+      <c r="Y79" s="138"/>
+      <c r="Z79" s="138"/>
+      <c r="AA79" s="138"/>
+      <c r="AB79" s="138"/>
       <c r="AC79" s="56"/>
       <c r="AD79" s="56"/>
       <c r="AE79" s="56"/>
@@ -6608,11 +6618,11 @@
       <c r="L82" s="56"/>
       <c r="M82" s="56"/>
       <c r="N82" s="111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O82" s="56"/>
       <c r="Q82" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R82" s="17"/>
       <c r="S82" s="17"/>
@@ -6818,7 +6828,7 @@
       <c r="AQ86" s="56"/>
       <c r="AR86" s="71"/>
     </row>
-    <row r="87" spans="4:44" ht="19.5" thickBot="1">
+    <row r="87" spans="4:44" ht="18.600000000000001" thickBot="1">
       <c r="D87" s="70"/>
       <c r="E87" s="56"/>
       <c r="F87" s="56"/>
@@ -6865,7 +6875,7 @@
       <c r="AQ87" s="56"/>
       <c r="AR87" s="71"/>
     </row>
-    <row r="88" spans="4:44" ht="15.75" thickTop="1">
+    <row r="88" spans="4:44" ht="14.4" thickTop="1">
       <c r="D88" s="70"/>
       <c r="E88" s="56"/>
       <c r="F88" s="56"/>
@@ -6908,7 +6918,7 @@
       <c r="AQ88" s="56"/>
       <c r="AR88" s="71"/>
     </row>
-    <row r="89" spans="4:44" ht="19.5" thickBot="1">
+    <row r="89" spans="4:44" ht="18.600000000000001" thickBot="1">
       <c r="D89" s="70"/>
       <c r="E89" s="56"/>
       <c r="F89" s="56"/>
@@ -6953,7 +6963,7 @@
       <c r="AQ89" s="56"/>
       <c r="AR89" s="71"/>
     </row>
-    <row r="90" spans="4:44" ht="15.75" thickTop="1">
+    <row r="90" spans="4:44" ht="14.4" thickTop="1">
       <c r="D90" s="70"/>
       <c r="E90" s="56"/>
       <c r="F90" s="56"/>
@@ -6996,7 +7006,7 @@
       <c r="AQ90" s="56"/>
       <c r="AR90" s="71"/>
     </row>
-    <row r="91" spans="4:44" ht="19.5" thickBot="1">
+    <row r="91" spans="4:44" ht="18.600000000000001" thickBot="1">
       <c r="D91" s="70"/>
       <c r="E91" s="56"/>
       <c r="F91" s="56"/>
@@ -7041,7 +7051,7 @@
       <c r="AQ91" s="56"/>
       <c r="AR91" s="71"/>
     </row>
-    <row r="92" spans="4:44" ht="15.75" thickTop="1">
+    <row r="92" spans="4:44" ht="14.4" thickTop="1">
       <c r="D92" s="70"/>
       <c r="E92" s="56"/>
       <c r="F92" s="56"/>
@@ -7342,7 +7352,7 @@
       <c r="AQ98" s="56"/>
       <c r="AR98" s="71"/>
     </row>
-    <row r="99" spans="4:44" ht="15.75" thickBot="1">
+    <row r="99" spans="4:44" ht="14.4" thickBot="1">
       <c r="D99" s="72"/>
       <c r="E99" s="73"/>
       <c r="F99" s="73"/>
@@ -7385,15 +7395,10 @@
       <c r="AQ99" s="73"/>
       <c r="AR99" s="74"/>
     </row>
-    <row r="100" spans="4:44" ht="15.75" thickTop="1"/>
+    <row r="100" spans="4:44" ht="14.4" thickTop="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="Q78:AB79"/>
-    <mergeCell ref="F16:K17"/>
-    <mergeCell ref="Q54:AB55"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:AE2"/>
     <mergeCell ref="AF1:AV1"/>
     <mergeCell ref="AF2:AV2"/>
     <mergeCell ref="A3:E4"/>
@@ -7408,6 +7413,11 @@
     <mergeCell ref="AK4:AN4"/>
     <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="Q78:AB79"/>
+    <mergeCell ref="F16:K17"/>
+    <mergeCell ref="Q54:AB55"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:AE2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
   <pageSetup paperSize="9" scale="51" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7423,16 +7433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="2.85546875" style="19"/>
+    <col min="1" max="16384" width="2.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
@@ -7674,14 +7684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
       <c r="A1" s="205" t="s">
@@ -7750,22 +7760,22 @@
       <c r="T2" s="213"/>
       <c r="U2" s="213"/>
       <c r="V2" s="214"/>
-      <c r="W2" s="140" t="s">
+      <c r="W2" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="142"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="153"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
       <c r="A3" s="218" t="s">
